--- a/output/emis_table.xlsx
+++ b/output/emis_table.xlsx
@@ -542,10 +542,10 @@
         <v>29.957907915838</v>
       </c>
       <c r="I2" t="n">
-        <v>46.2115056903725</v>
+        <v>46.0260497284597</v>
       </c>
       <c r="J2" t="n">
-        <v>39.4932230076054</v>
+        <v>39.33472885009</v>
       </c>
       <c r="K2" t="n">
         <v>1050.80168611139</v>
@@ -557,10 +557,10 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>112.431235696184</v>
+        <v>112.168780878582</v>
       </c>
       <c r="O2" t="n">
-        <v>98.3680669462142</v>
+        <v>98.1529249830562</v>
       </c>
     </row>
     <row r="3">
@@ -589,10 +589,10 @@
         <v>28.677043290513</v>
       </c>
       <c r="I3" t="n">
-        <v>56.2473931248219</v>
+        <v>55.9316407799868</v>
       </c>
       <c r="J3" t="n">
-        <v>9.02027660201025</v>
+        <v>8.96964005994285</v>
       </c>
       <c r="K3" t="n">
         <v>197.181314988615</v>
@@ -604,10 +604,10 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20.2518643960292</v>
+        <v>20.1978185003265</v>
       </c>
       <c r="O3" t="n">
-        <v>92.2055218977275</v>
+        <v>91.9903799345695</v>
       </c>
     </row>
     <row r="4">
@@ -636,10 +636,10 @@
         <v>40.0149505641883</v>
       </c>
       <c r="I4" t="n">
-        <v>-19.3793391213526</v>
+        <v>-19.851610671797</v>
       </c>
       <c r="J4" t="n">
-        <v>-11.1081193559208</v>
+        <v>-11.3788225371744</v>
       </c>
       <c r="K4" t="n">
         <v>796.03153394</v>
@@ -651,10 +651,10 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>86.9769549041987</v>
+        <v>85.8549678856128</v>
       </c>
       <c r="O4" t="n">
-        <v>114.688170886799</v>
+        <v>113.410900942391</v>
       </c>
     </row>
     <row r="5">
@@ -683,10 +683,10 @@
         <v>40.0149505641883</v>
       </c>
       <c r="I5" t="n">
-        <v>-19.3793391213526</v>
+        <v>-19.851610671797</v>
       </c>
       <c r="J5" t="n">
-        <v>-40.1890154319726</v>
+        <v>-41.1684156328794</v>
       </c>
       <c r="K5" t="n">
         <v>2880.03059535</v>
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>314.681366923525</v>
+        <v>310.622034091421</v>
       </c>
       <c r="O5" t="n">
-        <v>114.688170886799</v>
+        <v>113.410900942391</v>
       </c>
     </row>
     <row r="6">
@@ -730,10 +730,10 @@
         <v>40.0149505641883</v>
       </c>
       <c r="I6" t="n">
-        <v>-19.3793391213526</v>
+        <v>-19.851610671797</v>
       </c>
       <c r="J6" t="n">
-        <v>-14.0089188005856</v>
+        <v>-14.3503140236412</v>
       </c>
       <c r="K6" t="n">
         <v>1003.90901145</v>
@@ -745,10 +745,10 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>109.69031388069</v>
+        <v>108.275328631156</v>
       </c>
       <c r="O6" t="n">
-        <v>114.688170886799</v>
+        <v>113.410900942391</v>
       </c>
     </row>
     <row r="7">
@@ -777,10 +777,10 @@
         <v>35.202121157152</v>
       </c>
       <c r="I7" t="n">
-        <v>26.6149336617153</v>
+        <v>26.2221614546976</v>
       </c>
       <c r="J7" t="n">
-        <v>143.637147823533</v>
+        <v>141.51741007489</v>
       </c>
       <c r="K7" t="n">
         <v>7494.97316079</v>
@@ -792,10 +792,10 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>728.984558037273</v>
+        <v>718.587374683588</v>
       </c>
       <c r="O7" t="n">
-        <v>89.8126621602326</v>
+        <v>88.535392215824</v>
       </c>
     </row>
     <row r="8">
@@ -824,10 +824,10 @@
         <v>40.0149505641883</v>
       </c>
       <c r="I8" t="n">
-        <v>-19.3793391213526</v>
+        <v>-19.851610671797</v>
       </c>
       <c r="J8" t="n">
-        <v>-51.5288215276426</v>
+        <v>-52.7845710804548</v>
       </c>
       <c r="K8" t="n">
         <v>3692.6652954</v>
@@ -839,10 +839,10 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>403.472436933025</v>
+        <v>398.267715324931</v>
       </c>
       <c r="O8" t="n">
-        <v>114.688170886799</v>
+        <v>113.410900942391</v>
       </c>
     </row>
     <row r="9">
@@ -871,10 +871,10 @@
         <v>32.2952166903506</v>
       </c>
       <c r="I9" t="n">
-        <v>30.8054382798507</v>
+        <v>30.5357944946784</v>
       </c>
       <c r="J9" t="n">
-        <v>72.2515097718822</v>
+        <v>71.619083432016</v>
       </c>
       <c r="K9" t="n">
         <v>2883.81792611684</v>
@@ -886,10 +886,10 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>332.69290967781</v>
+        <v>331.927079770431</v>
       </c>
       <c r="O9" t="n">
-        <v>109.614113101108</v>
+        <v>109.398894012455</v>
       </c>
     </row>
     <row r="10">
@@ -918,10 +918,10 @@
         <v>35.8783999841845</v>
       </c>
       <c r="I10" t="n">
-        <v>18.3711682869962</v>
+        <v>18.018741809658</v>
       </c>
       <c r="J10" t="n">
-        <v>58.0323395600925</v>
+        <v>56.919066158894</v>
       </c>
       <c r="K10" t="n">
         <v>3884.021332</v>
@@ -933,10 +933,10 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>530.169790621625</v>
+        <v>525.458769984767</v>
       </c>
       <c r="O10" t="n">
-        <v>133.070360969187</v>
+        <v>131.923234910582</v>
       </c>
     </row>
     <row r="11">
@@ -965,10 +965,10 @@
         <v>34.04817637858</v>
       </c>
       <c r="I11" t="n">
-        <v>31.4106039525068</v>
+        <v>31.0160472013984</v>
       </c>
       <c r="J11" t="n">
-        <v>128.162226325983</v>
+        <v>126.552347327463</v>
       </c>
       <c r="K11" t="n">
         <v>5016.8608875</v>
@@ -980,10 +980,10 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>652.83921208616</v>
+        <v>646.7146828957</v>
       </c>
       <c r="O11" t="n">
-        <v>124.264718908864</v>
+        <v>123.117592850259</v>
       </c>
     </row>
     <row r="12">
@@ -1012,10 +1012,10 @@
         <v>37.8662594288031</v>
       </c>
       <c r="I12" t="n">
-        <v>4.35012299681847</v>
+        <v>4.0277895721733</v>
       </c>
       <c r="J12" t="n">
-        <v>3.84691048184475</v>
+        <v>3.561863868031</v>
       </c>
       <c r="K12" t="n">
         <v>1087.32368025</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>155.972870956836</v>
+        <v>154.660139477344</v>
       </c>
       <c r="O12" t="n">
-        <v>142.634426628675</v>
+        <v>141.487300570071</v>
       </c>
     </row>
     <row r="13">
@@ -1059,10 +1059,10 @@
         <v>27.1324850763532</v>
       </c>
       <c r="I13" t="n">
-        <v>54.2574368438808</v>
+        <v>53.9906961440978</v>
       </c>
       <c r="J13" t="n">
-        <v>21.3841355164571</v>
+        <v>21.2790067156196</v>
       </c>
       <c r="K13" t="n">
         <v>484.59700647</v>
@@ -1074,10 +1074,10 @@
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>50.2782240188775</v>
+        <v>49.7993723948566</v>
       </c>
       <c r="O13" t="n">
-        <v>93.6228813969441</v>
+        <v>92.6845374241816</v>
       </c>
     </row>
     <row r="14">
@@ -1106,10 +1106,10 @@
         <v>32.1619599963906</v>
       </c>
       <c r="I14" t="n">
-        <v>18.878570103859</v>
+        <v>18.6773676595509</v>
       </c>
       <c r="J14" t="n">
-        <v>33.6705705997481</v>
+        <v>33.311719210652</v>
       </c>
       <c r="K14" t="n">
         <v>2192.9548077</v>
@@ -1121,10 +1121,10 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>266.105154876247</v>
+        <v>263.965032471431</v>
       </c>
       <c r="O14" t="n">
-        <v>117.820884177374</v>
+        <v>116.882540204611</v>
       </c>
     </row>
     <row r="15">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>97.6252565443071</v>
+        <v>97.2246586192364</v>
       </c>
       <c r="J15" t="n">
-        <v>102.584784183815</v>
+        <v>102.163835208698</v>
       </c>
       <c r="K15" t="n">
         <v>1050.80168611139</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.891992999844</v>
+        <v>104.361098691851</v>
       </c>
       <c r="J16" t="n">
-        <v>20.6827411114859</v>
+        <v>20.5780586737158</v>
       </c>
       <c r="K16" t="n">
         <v>197.181314988615</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47.0348364301208</v>
+        <v>45.2852949352678</v>
       </c>
       <c r="J17" t="n">
-        <v>37.441212992086</v>
+        <v>36.0485227922465</v>
       </c>
       <c r="K17" t="n">
         <v>796.03153394</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>47.0348364301208</v>
+        <v>45.2852949352678</v>
       </c>
       <c r="J18" t="n">
-        <v>135.461767966031</v>
+        <v>130.42303493302</v>
       </c>
       <c r="K18" t="n">
         <v>2880.03059535</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>47.0348364301208</v>
+        <v>45.2852949352678</v>
       </c>
       <c r="J19" t="n">
-        <v>47.218696144275</v>
+        <v>45.4623156716864</v>
       </c>
       <c r="K19" t="n">
         <v>1003.90901145</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>82.1953321252639</v>
+        <v>80.5252899738376</v>
       </c>
       <c r="J20" t="n">
-        <v>616.051808221073</v>
+        <v>603.534887118745</v>
       </c>
       <c r="K20" t="n">
         <v>7494.97316079</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>47.0348364301208</v>
+        <v>45.2852949352678</v>
       </c>
       <c r="J21" t="n">
-        <v>173.683908160323</v>
+        <v>167.223436999417</v>
       </c>
       <c r="K21" t="n">
         <v>3692.6652954</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.2730042149357</v>
+        <v>86.7881413411107</v>
       </c>
       <c r="J22" t="n">
-        <v>251.679454021102</v>
+        <v>250.281197773857</v>
       </c>
       <c r="K22" t="n">
         <v>2883.81792611684</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>90.2958282555501</v>
+        <v>88.7962757196072</v>
       </c>
       <c r="J23" t="n">
-        <v>350.710923135165</v>
+        <v>344.886629097108</v>
       </c>
       <c r="K23" t="n">
         <v>3884.021332</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>99.3784324270196</v>
+        <v>97.8367496173066</v>
       </c>
       <c r="J24" t="n">
-        <v>498.567770704176</v>
+        <v>490.833362515196</v>
       </c>
       <c r="K24" t="n">
         <v>5016.8608875</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>80.5724135019407</v>
+        <v>79.1029540186908</v>
       </c>
       <c r="J25" t="n">
-        <v>87.6082931755549</v>
+        <v>86.0105150822494</v>
       </c>
       <c r="K25" t="n">
         <v>1087.32368025</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>106.836665379119</v>
+        <v>105.631580706573</v>
       </c>
       <c r="J26" t="n">
-        <v>51.7727282239581</v>
+        <v>51.1887477990997</v>
       </c>
       <c r="K26" t="n">
         <v>484.59700647</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>82.3312158003409</v>
+        <v>81.1916693832703</v>
       </c>
       <c r="J27" t="n">
-        <v>180.548635513144</v>
+        <v>178.049661719231</v>
       </c>
       <c r="K27" t="n">
         <v>2192.9548077</v>
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0280188121591</v>
+        <v>44.7246620799431</v>
       </c>
       <c r="J28" t="n">
-        <v>46.1799456559105</v>
+        <v>45.8688283165816</v>
       </c>
       <c r="K28" t="n">
         <v>1050.80168611139</v>
@@ -1779,10 +1779,10 @@
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>105.744513047879</v>
+        <v>105.634681412091</v>
       </c>
       <c r="O28" t="n">
-        <v>99.5515538244275</v>
+        <v>99.4543126315727</v>
       </c>
     </row>
     <row r="29">
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>46.2723846354558</v>
+        <v>45.9208182415585</v>
       </c>
       <c r="J29" t="n">
-        <v>8.90507245847629</v>
+        <v>8.83741387039432</v>
       </c>
       <c r="K29" t="n">
         <v>197.181314988615</v>
@@ -1826,10 +1826,10 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>20.3670685395631</v>
+        <v>20.330044689875</v>
       </c>
       <c r="O29" t="n">
-        <v>102.180530387094</v>
+        <v>102.001202472998</v>
       </c>
     </row>
     <row r="30">
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.8648115519139</v>
+        <v>43.2634446025402</v>
       </c>
       <c r="J30" t="n">
-        <v>313.946307787053</v>
+        <v>302.740571625955</v>
       </c>
       <c r="K30" t="n">
         <v>7494.97316079</v>
@@ -1873,10 +1873,10 @@
         <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>558.675398073753</v>
+        <v>557.364213132523</v>
       </c>
       <c r="O30" t="n">
-        <v>71.562784270034</v>
+        <v>71.4941090679815</v>
       </c>
     </row>
     <row r="31">
@@ -1905,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.8337803081652</v>
+        <v>43.4991899309238</v>
       </c>
       <c r="J31" t="n">
-        <v>123.374834028022</v>
+        <v>122.433093845695</v>
       </c>
       <c r="K31" t="n">
         <v>2883.81792611684</v>
@@ -1920,10 +1920,10 @@
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>281.56958542167</v>
+        <v>281.113069356753</v>
       </c>
       <c r="O31" t="n">
-        <v>96.5857710727933</v>
+        <v>96.4354985762096</v>
       </c>
     </row>
     <row r="32">
@@ -1952,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>53.849995345936</v>
+        <v>52.467986273812</v>
       </c>
       <c r="J32" t="n">
-        <v>203.925667385423</v>
+        <v>198.692108486205</v>
       </c>
       <c r="K32" t="n">
         <v>3884.021332</v>
@@ -1967,10 +1967,10 @@
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>384.276462796294</v>
+        <v>383.685727657457</v>
       </c>
       <c r="O32" t="n">
-        <v>97.5915339102473</v>
+        <v>97.4739904464285</v>
       </c>
     </row>
     <row r="33">
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>55.1467648672149</v>
+        <v>53.7491675937958</v>
       </c>
       <c r="J33" t="n">
-        <v>269.747056541127</v>
+        <v>262.910794221072</v>
       </c>
       <c r="K33" t="n">
         <v>5016.8608875</v>
@@ -2014,10 +2014,10 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>511.254381871016</v>
+        <v>510.356236002091</v>
       </c>
       <c r="O33" t="n">
-        <v>100.528557994155</v>
+        <v>100.384472457861</v>
       </c>
     </row>
     <row r="34">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>52.4938789997845</v>
+        <v>51.1230043571569</v>
       </c>
       <c r="J34" t="n">
-        <v>55.6508917620278</v>
+        <v>54.1975719119841</v>
       </c>
       <c r="K34" t="n">
         <v>1087.32368025</v>
@@ -2061,10 +2061,10 @@
         <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>104.168889676653</v>
+        <v>104.024431433391</v>
       </c>
       <c r="O34" t="n">
-        <v>94.4906706257093</v>
+        <v>94.392085785087</v>
       </c>
     </row>
     <row r="35">
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2359851245889</v>
+        <v>50.1134786539418</v>
       </c>
       <c r="J35" t="n">
-        <v>24.4812017447084</v>
+        <v>23.9448539551455</v>
       </c>
       <c r="K35" t="n">
         <v>484.59700647</v>
@@ -2108,10 +2108,10 @@
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>47.1811577906263</v>
+        <v>47.1335251553308</v>
       </c>
       <c r="O35" t="n">
-        <v>96.644333116236</v>
+        <v>96.5617549143375</v>
       </c>
     </row>
     <row r="36">
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>47.8402978152201</v>
+        <v>46.7420404990987</v>
       </c>
       <c r="J36" t="n">
-        <v>103.442848540347</v>
+        <v>101.068137880128</v>
       </c>
       <c r="K36" t="n">
         <v>2192.9548077</v>
@@ -2155,10 +2155,10 @@
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>196.332876935648</v>
+        <v>196.208613801955</v>
       </c>
       <c r="O36" t="n">
-        <v>88.8591564660125</v>
+        <v>88.8178673650633</v>
       </c>
     </row>
     <row r="37">
@@ -2187,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>144.579572636587</v>
+        <v>144.178974711516</v>
       </c>
       <c r="J37" t="n">
-        <v>151.924458703789</v>
+        <v>151.503509728672</v>
       </c>
       <c r="K37" t="n">
         <v>1050.80168611139</v>
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>148.452915022549</v>
+        <v>147.922020714556</v>
       </c>
       <c r="J38" t="n">
-        <v>29.2721409980394</v>
+        <v>29.1674585602694</v>
       </c>
       <c r="K38" t="n">
         <v>197.181314988615</v>
@@ -2273,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>95.3088317654467</v>
+        <v>93.5592902705936</v>
       </c>
       <c r="J39" t="n">
-        <v>75.8688355482779</v>
+        <v>74.4761453484384</v>
       </c>
       <c r="K39" t="n">
         <v>796.03153394</v>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>95.3088317654467</v>
+        <v>93.5592902705936</v>
       </c>
       <c r="J40" t="n">
-        <v>274.492351491552</v>
+        <v>269.453618458541</v>
       </c>
       <c r="K40" t="n">
         <v>2880.03059535</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3088317654467</v>
+        <v>93.5592902705936</v>
       </c>
       <c r="J41" t="n">
-        <v>95.6813950801039</v>
+        <v>93.9250146075153</v>
       </c>
       <c r="K41" t="n">
         <v>1003.90901145</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>116.427595821948</v>
+        <v>114.757553670522</v>
       </c>
       <c r="J42" t="n">
-        <v>872.621705860806</v>
+        <v>860.104784758478</v>
       </c>
       <c r="K42" t="n">
         <v>7494.97316079</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>95.3088317654467</v>
+        <v>93.5592902705936</v>
       </c>
       <c r="J43" t="n">
-        <v>351.943615405382</v>
+        <v>345.483144244476</v>
       </c>
       <c r="K43" t="n">
         <v>3692.6652954</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>140.419551380958</v>
+        <v>139.934688507133</v>
       </c>
       <c r="J44" t="n">
-        <v>404.944419449693</v>
+        <v>403.546163202447</v>
       </c>
       <c r="K44" t="n">
         <v>2883.81792611684</v>
@@ -2531,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>151.441529256183</v>
+        <v>149.94197672024</v>
       </c>
       <c r="J45" t="n">
-        <v>588.202130181718</v>
+        <v>582.377836143661</v>
       </c>
       <c r="K45" t="n">
         <v>3884.021332</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>155.67532286137</v>
+        <v>154.133640051657</v>
       </c>
       <c r="J46" t="n">
-        <v>781.001438412143</v>
+        <v>773.267030223163</v>
       </c>
       <c r="K46" t="n">
         <v>5016.8608875</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>146.984549625494</v>
+        <v>145.515090142244</v>
       </c>
       <c r="J47" t="n">
-        <v>159.819781438681</v>
+        <v>158.222003345375</v>
       </c>
       <c r="K47" t="n">
         <v>1087.32368025</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>147.880318240825</v>
+        <v>146.675233568279</v>
       </c>
       <c r="J48" t="n">
-        <v>71.6623595353347</v>
+        <v>71.0783791104762</v>
       </c>
       <c r="K48" t="n">
         <v>484.59700647</v>
@@ -2703,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>136.699454281233</v>
+        <v>135.559907864162</v>
       </c>
       <c r="J49" t="n">
-        <v>299.775725475995</v>
+        <v>297.276751682083</v>
       </c>
       <c r="K49" t="n">
         <v>2192.9548077</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>140.908283642804</v>
+        <v>140.525084667623</v>
       </c>
       <c r="J50" t="n">
-        <v>137.10972904804</v>
+        <v>136.736860212367</v>
       </c>
       <c r="K50" t="n">
         <v>1050.80168611139</v>
@@ -2761,10 +2761,10 @@
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>14.8147296557492</v>
+        <v>14.7666495163052</v>
       </c>
       <c r="O50" t="n">
-        <v>3.67128899378272</v>
+        <v>3.6538900438932</v>
       </c>
     </row>
     <row r="51">
@@ -2793,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>144.335798919238</v>
+        <v>143.839966131477</v>
       </c>
       <c r="J51" t="n">
-        <v>26.3542587561465</v>
+        <v>26.2637246981631</v>
       </c>
       <c r="K51" t="n">
         <v>197.181314988615</v>
@@ -2808,10 +2808,10 @@
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>2.91788224189292</v>
+        <v>2.9037338621063</v>
       </c>
       <c r="O51" t="n">
-        <v>4.11711610331099</v>
+        <v>4.08205458307907</v>
       </c>
     </row>
     <row r="52">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>137.259951859462</v>
+        <v>136.802810323884</v>
       </c>
       <c r="J52" t="n">
-        <v>366.541089191691</v>
+        <v>365.320331395295</v>
       </c>
       <c r="K52" t="n">
         <v>2883.81792611684</v>
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>38.4033302580012</v>
+        <v>38.2258318071524</v>
       </c>
       <c r="O52" t="n">
-        <v>3.15959952149677</v>
+        <v>3.13187818324946</v>
       </c>
     </row>
     <row r="53">
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>148.819034389163</v>
+        <v>147.341644129843</v>
       </c>
       <c r="J53" t="n">
-        <v>558.363749833197</v>
+        <v>552.820633869926</v>
       </c>
       <c r="K53" t="n">
         <v>3884.021332</v>
@@ -2902,10 +2902,10 @@
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>29.8383803485209</v>
+        <v>29.5572022737352</v>
       </c>
       <c r="O53" t="n">
-        <v>2.6224948670199</v>
+        <v>2.60033259039736</v>
       </c>
     </row>
     <row r="54">
@@ -2934,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>152.45644894233</v>
+        <v>150.942468978396</v>
       </c>
       <c r="J54" t="n">
-        <v>738.847800690557</v>
+        <v>731.510618338461</v>
       </c>
       <c r="K54" t="n">
         <v>5016.8608875</v>
@@ -2949,10 +2949,10 @@
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>42.1536377215864</v>
+        <v>41.7564118847019</v>
       </c>
       <c r="O54" t="n">
-        <v>3.21887391903991</v>
+        <v>3.19117107326178</v>
       </c>
     </row>
     <row r="55">
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>145.053938184306</v>
+        <v>143.601891918402</v>
       </c>
       <c r="J55" t="n">
-        <v>152.35808211667</v>
+        <v>150.832918532786</v>
       </c>
       <c r="K55" t="n">
         <v>1087.32368025</v>
@@ -2996,10 +2996,10 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>7.46169932201022</v>
+        <v>7.38908481258923</v>
       </c>
       <c r="O55" t="n">
-        <v>1.93061144118812</v>
+        <v>1.91319822384187</v>
       </c>
     </row>
     <row r="56">
@@ -3028,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>144.077272918855</v>
+        <v>142.889426170695</v>
       </c>
       <c r="J56" t="n">
-        <v>66.3284443989965</v>
+        <v>65.7815987696082</v>
       </c>
       <c r="K56" t="n">
         <v>484.59700647</v>
@@ -3043,10 +3043,10 @@
         <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>5.33391513633822</v>
+        <v>5.29678034086801</v>
       </c>
       <c r="O56" t="n">
-        <v>3.80304532196979</v>
+        <v>3.78580739758414</v>
       </c>
     </row>
     <row r="57">
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>134.273602433326</v>
+        <v>133.142674978448</v>
       </c>
       <c r="J57" t="n">
-        <v>279.733144903193</v>
+        <v>277.377075743825</v>
       </c>
       <c r="K57" t="n">
         <v>2192.9548077</v>
@@ -3090,10 +3090,10 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>20.0425805728027</v>
+        <v>19.8996759382578</v>
       </c>
       <c r="O57" t="n">
-        <v>2.42585184790659</v>
+        <v>2.41723288571379</v>
       </c>
     </row>
     <row r="58">
@@ -3122,10 +3122,10 @@
         <v>31.6270343455464</v>
       </c>
       <c r="I58" t="n">
-        <v>33.6448484878851</v>
+        <v>33.4767914758619</v>
       </c>
       <c r="J58" t="n">
-        <v>34.8656233816834</v>
+        <v>34.6914685630055</v>
       </c>
       <c r="K58" t="n">
         <v>1050.80168611139</v>
@@ -3137,10 +3137,10 @@
         <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>117.058835322106</v>
+        <v>116.812041165667</v>
       </c>
       <c r="O58" t="n">
-        <v>110.934724148702</v>
+        <v>110.702183235654</v>
       </c>
     </row>
     <row r="59">
@@ -3169,10 +3169,10 @@
         <v>30.4821673286326</v>
       </c>
       <c r="I59" t="n">
-        <v>42.6316471289019</v>
+        <v>42.3509563042987</v>
       </c>
       <c r="J59" t="n">
-        <v>8.29002743476648</v>
+        <v>8.23544510465825</v>
       </c>
       <c r="K59" t="n">
         <v>197.181314988615</v>
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>20.9821135632729</v>
+        <v>20.9320134556111</v>
       </c>
       <c r="O59" t="n">
-        <v>105.821267893648</v>
+        <v>105.571064410258</v>
       </c>
     </row>
     <row r="60">
@@ -3216,10 +3216,10 @@
         <v>33.6770318860265</v>
       </c>
       <c r="I60" t="n">
-        <v>20.0413739521778</v>
+        <v>19.7994515052528</v>
       </c>
       <c r="J60" t="n">
-        <v>56.9971874112834</v>
+        <v>56.3091657676933</v>
       </c>
       <c r="K60" t="n">
         <v>2883.81792611684</v>
@@ -3231,10 +3231,10 @@
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>347.947232038409</v>
+        <v>347.236997434754</v>
       </c>
       <c r="O60" t="n">
-        <v>120.378177428781</v>
+        <v>120.135237001881</v>
       </c>
     </row>
     <row r="61">
@@ -3263,10 +3263,10 @@
         <v>37.0289500075149</v>
       </c>
       <c r="I61" t="n">
-        <v>9.1325462719352</v>
+        <v>8.80228207121955</v>
       </c>
       <c r="J61" t="n">
-        <v>35.2458437824386</v>
+        <v>33.9712331668727</v>
       </c>
       <c r="K61" t="n">
         <v>3884.021332</v>
@@ -3278,10 +3278,10 @@
         <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>552.956286399279</v>
+        <v>548.406602976789</v>
       </c>
       <c r="O61" t="n">
-        <v>142.308982984248</v>
+        <v>141.139694649021</v>
       </c>
     </row>
     <row r="62">
@@ -3310,10 +3310,10 @@
         <v>35.4582244603482</v>
       </c>
       <c r="I62" t="n">
-        <v>20.3971422144549</v>
+        <v>20.0302883091247</v>
       </c>
       <c r="J62" t="n">
-        <v>101.680063026492</v>
+        <v>99.851290749312</v>
       </c>
       <c r="K62" t="n">
         <v>5016.8608875</v>
@@ -3325,10 +3325,10 @@
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>679.321375385651</v>
+        <v>673.415739473851</v>
       </c>
       <c r="O62" t="n">
-        <v>135.278180646915</v>
+        <v>134.103351742533</v>
       </c>
     </row>
     <row r="63">
@@ -3357,10 +3357,10 @@
         <v>38.7085547824447</v>
       </c>
       <c r="I63" t="n">
-        <v>-2.78843070020147</v>
+        <v>-3.09335090750038</v>
       </c>
       <c r="J63" t="n">
-        <v>-3.01268084515196</v>
+        <v>-3.34212323285873</v>
       </c>
       <c r="K63" t="n">
         <v>1087.32368025</v>
@@ -3372,10 +3372,10 @@
         <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>162.832462283833</v>
+        <v>161.564126578234</v>
       </c>
       <c r="O63" t="n">
-        <v>149.772980325695</v>
+        <v>148.608441049744</v>
       </c>
     </row>
     <row r="64">
@@ -3404,10 +3404,10 @@
         <v>28.8648824876625</v>
       </c>
       <c r="I64" t="n">
-        <v>41.351282474254</v>
+        <v>41.1017796988566</v>
       </c>
       <c r="J64" t="n">
-        <v>19.8516481001336</v>
+        <v>19.7318684705591</v>
       </c>
       <c r="K64" t="n">
         <v>484.59700647</v>
@@ -3419,10 +3419,10 @@
         <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>51.8107114352011</v>
+        <v>51.3465106399172</v>
       </c>
       <c r="O64" t="n">
-        <v>106.529035766571</v>
+        <v>105.573453869423</v>
       </c>
     </row>
     <row r="65">
@@ -3451,10 +3451,10 @@
         <v>33.2771994154841</v>
       </c>
       <c r="I65" t="n">
-        <v>10.1221365983807</v>
+        <v>9.9295531162654</v>
       </c>
       <c r="J65" t="n">
-        <v>21.990177422328</v>
+        <v>21.5717929341161</v>
       </c>
       <c r="K65" t="n">
         <v>2192.9548077</v>
@@ -3466,10 +3466,10 @@
         <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>277.785548053667</v>
+        <v>275.704958747967</v>
       </c>
       <c r="O65" t="n">
-        <v>126.577317682852</v>
+        <v>125.630354747897</v>
       </c>
     </row>
     <row r="66">
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>93.1237296103717</v>
+        <v>92.7341567638559</v>
       </c>
       <c r="J66" t="n">
-        <v>97.8545720915598</v>
+        <v>97.4452082875777</v>
       </c>
       <c r="K66" t="n">
         <v>1050.80168611139</v>
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>54.0698866122296</v>
+        <v>54.0583014410946</v>
       </c>
       <c r="O66" t="n">
-        <v>51.4558430262149</v>
+        <v>51.44481794766</v>
       </c>
     </row>
     <row r="67">
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>100.726698541801</v>
+        <v>100.204824752626</v>
       </c>
       <c r="J67" t="n">
-        <v>19.8614228729342</v>
+        <v>19.7585191129265</v>
       </c>
       <c r="K67" t="n">
         <v>197.181314988615</v>
@@ -3560,10 +3560,10 @@
         <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>9.41071812510523</v>
+        <v>9.40893944734288</v>
       </c>
       <c r="O67" t="n">
-        <v>47.7262164807482</v>
+        <v>47.7171959619305</v>
       </c>
     </row>
     <row r="68">
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>42.3535200106685</v>
+        <v>40.6212126392157</v>
       </c>
       <c r="J68" t="n">
-        <v>33.7147375018509</v>
+        <v>32.3357662076978</v>
       </c>
       <c r="K68" t="n">
         <v>796.03153394</v>
@@ -3607,10 +3607,10 @@
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>42.154098046427</v>
+        <v>42.1403791407406</v>
       </c>
       <c r="O68" t="n">
-        <v>52.9553117547782</v>
+        <v>52.938077631378</v>
       </c>
     </row>
     <row r="69">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>42.3535200106685</v>
+        <v>40.6212126392157</v>
       </c>
       <c r="J69" t="n">
-        <v>121.979433451494</v>
+        <v>116.990335221159</v>
       </c>
       <c r="K69" t="n">
         <v>2880.03059535</v>
@@ -3654,10 +3654,10 @@
         <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>152.512918040059</v>
+        <v>152.463283237382</v>
       </c>
       <c r="O69" t="n">
-        <v>52.9553117547782</v>
+        <v>52.938077631378</v>
       </c>
     </row>
     <row r="70">
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>42.3535200106685</v>
+        <v>40.6212126392157</v>
       </c>
       <c r="J70" t="n">
-        <v>42.519080405338</v>
+        <v>40.7800014245353</v>
       </c>
       <c r="K70" t="n">
         <v>1003.90901145</v>
@@ -3701,10 +3701,10 @@
         <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>53.1623146747659</v>
+        <v>53.14501318298</v>
       </c>
       <c r="O70" t="n">
-        <v>52.9553117547782</v>
+        <v>52.938077631378</v>
       </c>
     </row>
     <row r="71">
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>78.8178772923564</v>
+        <v>77.1664591129917</v>
       </c>
       <c r="J71" t="n">
-        <v>590.737874896651</v>
+        <v>578.360539965072</v>
       </c>
       <c r="K71" t="n">
         <v>7494.97316079</v>
@@ -3748,10 +3748,10 @@
         <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>281.883830964155</v>
+        <v>281.744244793406</v>
       </c>
       <c r="O71" t="n">
-        <v>37.6097185295915</v>
+        <v>37.59109455753</v>
       </c>
     </row>
     <row r="72">
@@ -3780,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>42.3535200106685</v>
+        <v>40.6212126392157</v>
       </c>
       <c r="J72" t="n">
-        <v>156.397373481425</v>
+        <v>150.000542169896</v>
       </c>
       <c r="K72" t="n">
         <v>3692.6652954</v>
@@ -3795,10 +3795,10 @@
         <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>195.546241923957</v>
+        <v>195.48260207458</v>
       </c>
       <c r="O72" t="n">
-        <v>52.9553117547782</v>
+        <v>52.938077631378</v>
       </c>
     </row>
     <row r="73">
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>82.1652841352427</v>
+        <v>81.6942891551592</v>
       </c>
       <c r="J73" t="n">
-        <v>236.949719293696</v>
+        <v>235.591455527021</v>
       </c>
       <c r="K73" t="n">
         <v>2883.81792611684</v>
@@ -3842,10 +3842,10 @@
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>167.994700155996</v>
+        <v>167.954707675427</v>
       </c>
       <c r="O73" t="n">
-        <v>58.2542672457158</v>
+        <v>58.2403993519742</v>
       </c>
     </row>
     <row r="74">
@@ -3874,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>84.4818939712632</v>
+        <v>82.9913693511282</v>
       </c>
       <c r="J74" t="n">
-        <v>328.129478352148</v>
+        <v>322.340248931673</v>
       </c>
       <c r="K74" t="n">
         <v>3884.021332</v>
@@ -3889,10 +3889,10 @@
         <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>260.072651829569</v>
+        <v>260.037587211988</v>
       </c>
       <c r="O74" t="n">
-        <v>66.9596352849201</v>
+        <v>66.9506073691122</v>
       </c>
     </row>
     <row r="75">
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>94.0190741333219</v>
+        <v>92.4864192394168</v>
       </c>
       <c r="J75" t="n">
-        <v>471.680615698426</v>
+        <v>463.991499307158</v>
       </c>
       <c r="K75" t="n">
         <v>5016.8608875</v>
@@ -3936,10 +3936,10 @@
         <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>309.320822713718</v>
+        <v>309.275530916005</v>
       </c>
       <c r="O75" t="n">
-        <v>61.6562487280484</v>
+        <v>61.6472208122406</v>
       </c>
     </row>
     <row r="76">
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>74.2375759863878</v>
+        <v>72.7801537242152</v>
       </c>
       <c r="J76" t="n">
-        <v>80.7202743343583</v>
+        <v>79.1355845965744</v>
       </c>
       <c r="K76" t="n">
         <v>1087.32368025</v>
@@ -3983,10 +3983,10 @@
         <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>79.0995071043224</v>
+        <v>79.0864187488008</v>
       </c>
       <c r="O76" t="n">
-        <v>72.7469736391059</v>
+        <v>72.7349364180287</v>
       </c>
     </row>
     <row r="77">
@@ -4015,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>102.988822923334</v>
+        <v>101.783738250788</v>
       </c>
       <c r="J77" t="n">
-        <v>49.9080752885166</v>
+        <v>49.3240948636581</v>
       </c>
       <c r="K77" t="n">
         <v>484.59700647</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>77.2341934427574</v>
+        <v>76.0946470256868</v>
       </c>
       <c r="J78" t="n">
-        <v>169.371095829127</v>
+        <v>166.872122035214</v>
       </c>
       <c r="K78" t="n">
         <v>2192.9548077</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>124.294557384441</v>
+        <v>123.809694510616</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="n">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>115.233125078912</v>
+        <v>114.832527153841</v>
       </c>
       <c r="J80" t="n">
-        <v>121.087162128805</v>
+        <v>120.666213153688</v>
       </c>
       <c r="K80" t="n">
         <v>1050.80168611139</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>121.227338758359</v>
+        <v>120.696444450366</v>
       </c>
       <c r="J81" t="n">
-        <v>23.9037660689435</v>
+        <v>23.7990836311734</v>
       </c>
       <c r="K81" t="n">
         <v>197.181314988615</v>
@@ -4210,7 +4210,7 @@
         <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>5.36837492909593</v>
+        <v>5.36837492909594</v>
       </c>
       <c r="O81" t="n">
         <v>27.2255762641907</v>
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>65.137584680868</v>
+        <v>63.388043186015</v>
       </c>
       <c r="J82" t="n">
-        <v>51.851571450658</v>
+        <v>50.4588812508185</v>
       </c>
       <c r="K82" t="n">
         <v>796.03153394</v>
@@ -4289,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>65.137584680868</v>
+        <v>63.388043186015</v>
       </c>
       <c r="J83" t="n">
-        <v>187.598236788101</v>
+        <v>182.55950375509</v>
       </c>
       <c r="K83" t="n">
         <v>2880.03059535</v>
@@ -4304,7 +4304,7 @@
         <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>86.894114703451</v>
+        <v>86.8941147034508</v>
       </c>
       <c r="O83" t="n">
         <v>30.1712470845786</v>
@@ -4336,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>65.137584680868</v>
+        <v>63.388043186015</v>
       </c>
       <c r="J84" t="n">
-        <v>65.3922082452109</v>
+        <v>63.6358277726223</v>
       </c>
       <c r="K84" t="n">
         <v>1003.90901145</v>
@@ -4383,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>95.0324310115204</v>
+        <v>93.3623888600941</v>
       </c>
       <c r="J85" t="n">
-        <v>712.265519835973</v>
+        <v>699.748598733645</v>
       </c>
       <c r="K85" t="n">
         <v>7494.97316079</v>
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>65.137584680868</v>
+        <v>63.388043186015</v>
       </c>
       <c r="J86" t="n">
-        <v>240.53129837722</v>
+        <v>234.070827216314</v>
       </c>
       <c r="K86" t="n">
         <v>3692.6652954</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>107.202959402194</v>
+        <v>106.718096528369</v>
       </c>
       <c r="J87" t="n">
-        <v>309.153816056823</v>
+        <v>307.755559809578</v>
       </c>
       <c r="K87" t="n">
         <v>2883.81792611684</v>
@@ -4524,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>113.225466130788</v>
+        <v>111.725913594845</v>
       </c>
       <c r="J88" t="n">
-        <v>439.770125777623</v>
+        <v>433.945831739566</v>
       </c>
       <c r="K88" t="n">
         <v>3884.021332</v>
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>120.489766339901</v>
+        <v>118.948083530188</v>
       </c>
       <c r="J89" t="n">
-        <v>604.480396094664</v>
+        <v>596.745987905684</v>
       </c>
       <c r="K89" t="n">
         <v>5016.8608875</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>105.476964548273</v>
+        <v>104.007505065023</v>
       </c>
       <c r="J90" t="n">
-        <v>114.687601274227</v>
+        <v>113.089823180922</v>
       </c>
       <c r="K90" t="n">
         <v>1087.32368025</v>
@@ -4633,10 +4633,10 @@
         <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>45.1321801644536</v>
+        <v>45.1321801644535</v>
       </c>
       <c r="O90" t="n">
-        <v>41.5075850772206</v>
+        <v>41.5075850772207</v>
       </c>
     </row>
     <row r="91">
@@ -4665,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>122.228035202259</v>
+        <v>121.022950529713</v>
       </c>
       <c r="J91" t="n">
-        <v>59.2313399657243</v>
+        <v>58.6473595408659</v>
       </c>
       <c r="K91" t="n">
         <v>484.59700647</v>
@@ -4712,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>102.719305230675</v>
+        <v>101.579758813605</v>
       </c>
       <c r="J92" t="n">
-        <v>225.258794249213</v>
+        <v>222.759820455301</v>
       </c>
       <c r="K92" t="n">
         <v>2192.9548077</v>
@@ -4727,7 +4727,7 @@
         <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>74.5169312267824</v>
+        <v>74.5169312267823</v>
       </c>
       <c r="O92" t="n">
         <v>33.9801490505573</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>129.829926102143</v>
+        <v>129.429328177072</v>
       </c>
       <c r="J93" t="n">
-        <v>136.425505255849</v>
+        <v>136.004556280732</v>
       </c>
       <c r="K93" t="n">
         <v>1050.80168611139</v>
@@ -4806,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>95.3088317654467</v>
+        <v>93.5592902705936</v>
       </c>
       <c r="J94" t="n">
-        <v>714.337136068272</v>
+        <v>701.224369520661</v>
       </c>
       <c r="K94" t="n">
         <v>7494.97316079</v>
@@ -4821,10 +4821,10 @@
         <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>158.284569792534</v>
+        <v>158.880415237818</v>
       </c>
       <c r="O94" t="n">
-        <v>21.1187640565013</v>
+        <v>21.198263399928</v>
       </c>
     </row>
     <row r="95">
@@ -4853,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>129.745199439463</v>
+        <v>129.260336565638</v>
       </c>
       <c r="J95" t="n">
-        <v>224.496919182677</v>
+        <v>223.65796543433</v>
       </c>
       <c r="K95" t="n">
         <v>2883.81792611684</v>
@@ -4868,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>180.447500267015</v>
+        <v>179.888197768117</v>
       </c>
       <c r="O95" t="n">
         <v>10.6743519414951</v>
@@ -4900,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>143.749353356445</v>
+        <v>142.249800820502</v>
       </c>
       <c r="J96" t="n">
-        <v>558.325554897639</v>
+        <v>552.501260859582</v>
       </c>
       <c r="K96" t="n">
         <v>3884.021332</v>
@@ -4915,7 +4915,7 @@
         <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>29.8765752840793</v>
+        <v>29.8765752840795</v>
       </c>
       <c r="O96" t="n">
         <v>7.6921758997382</v>
@@ -4947,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>144.914629515823</v>
+        <v>143.37294670611</v>
       </c>
       <c r="J97" t="n">
-        <v>727.016536844485</v>
+        <v>719.282128655505</v>
       </c>
       <c r="K97" t="n">
         <v>5016.8608875</v>
@@ -4994,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>142.681678644796</v>
+        <v>141.212219161546</v>
       </c>
       <c r="J98" t="n">
-        <v>155.141167928307</v>
+        <v>153.543389835002</v>
       </c>
       <c r="K98" t="n">
         <v>1087.32368025</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>131.756853665449</v>
+        <v>130.551768992904</v>
       </c>
       <c r="J99" t="n">
-        <v>63.8489768681825</v>
+        <v>63.2649964433241</v>
       </c>
       <c r="K99" t="n">
         <v>484.59700647</v>
@@ -5056,7 +5056,7 @@
         <v>100</v>
       </c>
       <c r="N99" t="n">
-        <v>7.81338266715213</v>
+        <v>7.81338266715215</v>
       </c>
       <c r="O99" t="n">
         <v>16.1234645753757</v>
@@ -5088,10 +5088,10 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>128.869629429529</v>
+        <v>127.730083012458</v>
       </c>
       <c r="J100" t="n">
-        <v>282.605273424002</v>
+        <v>280.10629963009</v>
       </c>
       <c r="K100" t="n">
         <v>2192.9548077</v>
@@ -5103,7 +5103,7 @@
         <v>100</v>
       </c>
       <c r="N100" t="n">
-        <v>17.1704520519932</v>
+        <v>17.1704520519931</v>
       </c>
       <c r="O100" t="n">
         <v>7.82982485170393</v>
@@ -5135,10 +5135,10 @@
         <v>36.9635497674296</v>
       </c>
       <c r="I101" t="n">
-        <v>-2.24395381634243</v>
+        <v>-2.42940977825524</v>
       </c>
       <c r="J101" t="n">
-        <v>-2.35795045376872</v>
+        <v>-2.55282789124611</v>
       </c>
       <c r="K101" t="n">
         <v>1050.80168611139</v>
@@ -5150,10 +5150,10 @@
         <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>154.282409157558</v>
+        <v>154.056337619918</v>
       </c>
       <c r="O101" t="n">
-        <v>146.823526452929</v>
+        <v>146.608384489771</v>
       </c>
     </row>
     <row r="102">
@@ -5182,10 +5182,10 @@
         <v>40.0149505641883</v>
       </c>
       <c r="I102" t="n">
-        <v>-19.3793391213526</v>
+        <v>-19.851610671797</v>
       </c>
       <c r="J102" t="n">
-        <v>-145.247626588385</v>
+        <v>-148.787289183571</v>
       </c>
       <c r="K102" t="n">
         <v>7494.97316079</v>
@@ -5197,10 +5197,10 @@
         <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>1017.86933244919</v>
+        <v>1008.89207394205</v>
       </c>
       <c r="O102" t="n">
-        <v>135.806934943301</v>
+        <v>134.609164342319</v>
       </c>
     </row>
     <row r="103">
@@ -5229,10 +5229,10 @@
         <v>37.3652152510162</v>
       </c>
       <c r="I103" t="n">
-        <v>-4.26188533727445</v>
+        <v>-4.53152912244674</v>
       </c>
       <c r="J103" t="n">
-        <v>-11.3726552120736</v>
+        <v>-12.0921878968276</v>
       </c>
       <c r="K103" t="n">
         <v>2883.81792611684</v>
@@ -5244,10 +5244,10 @@
         <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>416.317074661766</v>
+        <v>415.638351099275</v>
       </c>
       <c r="O103" t="n">
-        <v>144.681436718233</v>
+        <v>144.46621762958</v>
       </c>
     </row>
     <row r="104">
@@ -5276,10 +5276,10 @@
         <v>39.5319539379803</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.89912662874193</v>
+        <v>-7.25155310608008</v>
       </c>
       <c r="J104" t="n">
-        <v>-26.7963549982029</v>
+        <v>-28.1651869541459</v>
       </c>
       <c r="K104" t="n">
         <v>3884.021332</v>
@@ -5291,10 +5291,10 @@
         <v>100</v>
       </c>
       <c r="N104" t="n">
-        <v>614.998485179921</v>
+        <v>610.543023097807</v>
       </c>
       <c r="O104" t="n">
-        <v>158.340655884925</v>
+        <v>157.193529826321</v>
       </c>
     </row>
     <row r="105">
@@ -5323,10 +5323,10 @@
         <v>39.1591845290243</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.94036798107461</v>
+        <v>-4.33492473218294</v>
       </c>
       <c r="J105" t="n">
-        <v>-19.7682780066105</v>
+        <v>-21.747714339145</v>
       </c>
       <c r="K105" t="n">
         <v>5016.8608875</v>
@@ -5338,10 +5338,10 @@
         <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>800.769716418754</v>
+        <v>795.014744562308</v>
       </c>
       <c r="O105" t="n">
-        <v>159.615690842445</v>
+        <v>158.46856478384</v>
       </c>
     </row>
     <row r="106">
@@ -5370,10 +5370,10 @@
         <v>39.9099947111356</v>
       </c>
       <c r="I106" t="n">
-        <v>-9.78564561844499</v>
+        <v>-10.1079790430902</v>
       </c>
       <c r="J106" t="n">
-        <v>-10.6401642074699</v>
+        <v>-10.9906449730227</v>
       </c>
       <c r="K106" t="n">
         <v>1087.32368025</v>
@@ -5385,10 +5385,10 @@
         <v>100</v>
       </c>
       <c r="N106" t="n">
-        <v>170.459945646151</v>
+        <v>169.212648318398</v>
       </c>
       <c r="O106" t="n">
-        <v>156.770195243939</v>
+        <v>155.623069185334</v>
       </c>
     </row>
     <row r="107">
@@ -5417,10 +5417,10 @@
         <v>34.7906494912178</v>
       </c>
       <c r="I107" t="n">
-        <v>1.28871769419609</v>
+        <v>1.02197699441307</v>
       </c>
       <c r="J107" t="n">
-        <v>0.624508736792343</v>
+        <v>0.495246992173779</v>
       </c>
       <c r="K107" t="n">
         <v>484.59700647</v>
@@ -5432,10 +5432,10 @@
         <v>100</v>
       </c>
       <c r="N107" t="n">
-        <v>71.0378507985423</v>
+        <v>70.5831321183025</v>
       </c>
       <c r="O107" t="n">
-        <v>146.591600546629</v>
+        <v>145.653256573866</v>
       </c>
     </row>
     <row r="108">
@@ -5464,10 +5464,10 @@
         <v>35.8808930937794</v>
       </c>
       <c r="I108" t="n">
-        <v>-6.84392840893145</v>
+        <v>-7.04513085323953</v>
       </c>
       <c r="J108" t="n">
-        <v>-15.0084257079208</v>
+        <v>-15.4496535754872</v>
       </c>
       <c r="K108" t="n">
         <v>2192.9548077</v>
@@ -5479,10 +5479,10 @@
         <v>100</v>
       </c>
       <c r="N108" t="n">
-        <v>314.784151183916</v>
+        <v>312.72640525757</v>
       </c>
       <c r="O108" t="n">
-        <v>143.543382690164</v>
+        <v>142.605038717402</v>
       </c>
     </row>
     <row r="109">
@@ -5511,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>64.315566237304</v>
+        <v>63.9149683122332</v>
       </c>
       <c r="J109" t="n">
-        <v>67.5829054453678</v>
+        <v>67.1619564702507</v>
       </c>
       <c r="K109" t="n">
         <v>1050.80168611139</v>
@@ -5558,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>73.9895980163418</v>
+        <v>73.4587037083487</v>
       </c>
       <c r="J110" t="n">
-        <v>14.5893662323413</v>
+        <v>14.4846837945712</v>
       </c>
       <c r="K110" t="n">
         <v>197.181314988615</v>
@@ -5605,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>63.1667073915608</v>
+        <v>62.6818445177358</v>
       </c>
       <c r="J111" t="n">
-        <v>182.16128310956</v>
+        <v>180.763026862315</v>
       </c>
       <c r="K111" t="n">
         <v>2883.81792611684</v>
@@ -5623,7 +5623,7 @@
         <v>222.783136340132</v>
       </c>
       <c r="O111" t="n">
-        <v>77.2528439893977</v>
+        <v>77.2528439893976</v>
       </c>
     </row>
     <row r="112">
@@ -5652,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>72.9242935269765</v>
+        <v>71.4247409910337</v>
       </c>
       <c r="J112" t="n">
-        <v>283.239511679806</v>
+        <v>277.41521764175</v>
       </c>
       <c r="K112" t="n">
         <v>3884.021332</v>
@@ -5667,7 +5667,7 @@
         <v>100</v>
       </c>
       <c r="N112" t="n">
-        <v>304.962618501911</v>
+        <v>304.962618501912</v>
       </c>
       <c r="O112" t="n">
         <v>78.5172357292067</v>
@@ -5699,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>75.0771475120358</v>
+        <v>73.5354647023227</v>
       </c>
       <c r="J113" t="n">
-        <v>376.6516048982</v>
+        <v>368.91719670922</v>
       </c>
       <c r="K113" t="n">
         <v>5016.8608875</v>
@@ -5746,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>70.8550755668701</v>
+        <v>69.3856160836203</v>
       </c>
       <c r="J114" t="n">
-        <v>77.0424015297611</v>
+        <v>75.4446234364556</v>
       </c>
       <c r="K114" t="n">
         <v>1087.32368025</v>
@@ -5793,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>70.4244293009507</v>
+        <v>69.2193446284051</v>
       </c>
       <c r="J115" t="n">
-        <v>34.1274676215988</v>
+        <v>33.5434871967404</v>
       </c>
       <c r="K115" t="n">
         <v>484.59700647</v>
@@ -5840,10 +5840,10 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>64.6488231844033</v>
+        <v>63.5092767673327</v>
       </c>
       <c r="J116" t="n">
-        <v>141.771947614384</v>
+        <v>139.272973820472</v>
       </c>
       <c r="K116" t="n">
         <v>2192.9548077</v>
@@ -5887,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>58.0740351996912</v>
+        <v>57.6844623531753</v>
       </c>
       <c r="J117" t="n">
-        <v>61.0242941071277</v>
+        <v>60.6149303031456</v>
       </c>
       <c r="K117" t="n">
         <v>1050.80168611139</v>
@@ -5902,10 +5902,10 @@
         <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>90.9001645966618</v>
+        <v>90.8885794255267</v>
       </c>
       <c r="O117" t="n">
-        <v>86.5055374368955</v>
+        <v>86.4945123583406</v>
       </c>
     </row>
     <row r="118">
@@ -5934,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>68.2100497604049</v>
+        <v>67.6881759712295</v>
       </c>
       <c r="J118" t="n">
-        <v>13.4497473071955</v>
+        <v>13.3468435471878</v>
       </c>
       <c r="K118" t="n">
         <v>197.181314988615</v>
@@ -5949,10 +5949,10 @@
         <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>15.8223936908439</v>
+        <v>15.8206150130816</v>
       </c>
       <c r="O118" t="n">
-        <v>80.2428652621445</v>
+        <v>80.2338447433268</v>
       </c>
     </row>
     <row r="119">
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>56.7997424791916</v>
+        <v>56.3287474991082</v>
       </c>
       <c r="J119" t="n">
-        <v>163.800115560313</v>
+        <v>162.441851793637</v>
       </c>
       <c r="K119" t="n">
         <v>2883.81792611684</v>
@@ -5996,10 +5996,10 @@
         <v>100</v>
       </c>
       <c r="N119" t="n">
-        <v>241.14430388938</v>
+        <v>241.10431140881</v>
       </c>
       <c r="O119" t="n">
-        <v>83.6198089017669</v>
+        <v>83.6059410080253</v>
       </c>
     </row>
     <row r="120">
@@ -6028,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>66.2029193524867</v>
+        <v>64.7123947323517</v>
       </c>
       <c r="J120" t="n">
-        <v>257.133551005734</v>
+        <v>251.344321585258</v>
       </c>
       <c r="K120" t="n">
         <v>3884.021332</v>
@@ -6043,10 +6043,10 @@
         <v>100</v>
       </c>
       <c r="N120" t="n">
-        <v>331.068579175984</v>
+        <v>331.033514558403</v>
       </c>
       <c r="O120" t="n">
-        <v>85.2386099036966</v>
+        <v>85.2295819878887</v>
       </c>
     </row>
     <row r="121">
@@ -6075,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>68.4483587587032</v>
+        <v>66.9157038647981</v>
       </c>
       <c r="J121" t="n">
-        <v>343.395893870106</v>
+        <v>335.706777478838</v>
       </c>
       <c r="K121" t="n">
         <v>5016.8608875</v>
@@ -6090,10 +6090,10 @@
         <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>437.605544542037</v>
+        <v>437.560252744325</v>
       </c>
       <c r="O121" t="n">
-        <v>87.2269641026671</v>
+        <v>87.2179361868592</v>
       </c>
     </row>
     <row r="122">
@@ -6122,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>64.0126317743448</v>
+        <v>62.5552095121721</v>
       </c>
       <c r="J122" t="n">
-        <v>69.6024503633687</v>
+        <v>68.0177606255848</v>
       </c>
       <c r="K122" t="n">
         <v>1087.32368025</v>
@@ -6137,10 +6137,10 @@
         <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>90.217331075312</v>
+        <v>90.2042427197904</v>
       </c>
       <c r="O122" t="n">
-        <v>82.971917851149</v>
+        <v>82.9598806300718</v>
       </c>
     </row>
     <row r="123">
@@ -6169,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>64.6745145167791</v>
+        <v>63.4694298442335</v>
       </c>
       <c r="J123" t="n">
-        <v>31.3410761297317</v>
+        <v>30.7570957048732</v>
       </c>
       <c r="K123" t="n">
         <v>484.59700647</v>
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>58.628122598923</v>
+        <v>57.4885761818525</v>
       </c>
       <c r="J124" t="n">
-        <v>128.568823319733</v>
+        <v>126.069849525821</v>
       </c>
       <c r="K124" t="n">
         <v>2192.9548077</v>
@@ -6263,10 +6263,10 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>88.8834511866186</v>
+        <v>88.4828532615478</v>
       </c>
       <c r="J125" t="n">
-        <v>93.3988803742982</v>
+        <v>92.9779313991811</v>
       </c>
       <c r="K125" t="n">
         <v>1050.80168611139</v>
@@ -6310,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>96.7819589664325</v>
+        <v>96.2510646584394</v>
       </c>
       <c r="J126" t="n">
-        <v>19.0835939361753</v>
+        <v>18.9789114984053</v>
       </c>
       <c r="K126" t="n">
         <v>197.181314988615</v>
@@ -6357,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>88.1336419095243</v>
+        <v>87.6487790356993</v>
       </c>
       <c r="J127" t="n">
-        <v>254.161376432648</v>
+        <v>252.763120185403</v>
       </c>
       <c r="K127" t="n">
         <v>2883.81792611684</v>
@@ -6404,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>99.4836909630275</v>
+        <v>97.9841384270846</v>
       </c>
       <c r="J128" t="n">
-        <v>386.396777886494</v>
+        <v>380.572483848438</v>
       </c>
       <c r="K128" t="n">
         <v>3884.021332</v>
@@ -6451,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>101.266203263456</v>
+        <v>99.7245204537427</v>
       </c>
       <c r="J129" t="n">
-        <v>508.038454378056</v>
+        <v>500.304046189076</v>
       </c>
       <c r="K129" t="n">
         <v>5016.8608875</v>
@@ -6498,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>97.7900517210922</v>
+        <v>96.3205922378423</v>
       </c>
       <c r="J130" t="n">
-        <v>106.329438929216</v>
+        <v>104.73166083591</v>
       </c>
       <c r="K130" t="n">
         <v>1087.32368025</v>
@@ -6513,7 +6513,7 @@
         <v>100</v>
       </c>
       <c r="N130" t="n">
-        <v>53.4903425094649</v>
+        <v>53.4903425094648</v>
       </c>
       <c r="O130" t="n">
         <v>49.1944979044016</v>
@@ -6545,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>93.4240884376376</v>
+        <v>92.2190037650921</v>
       </c>
       <c r="J131" t="n">
-        <v>45.2730335890677</v>
+        <v>44.6890531642093</v>
       </c>
       <c r="K131" t="n">
         <v>484.59700647</v>
@@ -6592,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>88.7316255263253</v>
+        <v>87.5920791092547</v>
       </c>
       <c r="J132" t="n">
-        <v>194.584444792991</v>
+        <v>192.085470999079</v>
       </c>
       <c r="K132" t="n">
         <v>2192.9548077</v>
